--- a/pred_ohlcv/54_21/2019-10-26 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BSV ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>1099.88319639</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1177.99379639</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1446.08219639</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1413.88059639</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1179.11549639</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1064.57559639</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1064.57559639</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1342.75130548</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1245.43090548</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1246.39660548</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1283.02630548</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1283.55630548</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1283.61540548</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1174.59100548</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1186.60390548</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1174.56400548</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1271.81550548</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>8061.051701589999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>8398.833240659998</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>8850.800140659998</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>9687.328815069997</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>9167.140113829997</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>9404.799160889997</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>9193.524560889997</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>9353.151560889997</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>9147.772439359996</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>8943.190539359997</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9059.656739359998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>8863.954539359998</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9120.436205849999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8981.687705849999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>8785.658905849999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>8471.50580585</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>8801.13812525</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>8694.59738322</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>11108.41979859002</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>10469.24926139002</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>10134.20469530002</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>9943.762376000015</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>10018.24927845002</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>10182.41631541002</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>10509.86301541002</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>10204.57041416002</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>10113.39441012002</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>9671.691010120016</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>9534.343968850015</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>9593.094368850016</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>9544.876168850016</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>9541.468468850017</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>9577.309268850016</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>9631.440468850016</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>9672.671356840016</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>9666.576056840015</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>9772.262056840014</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>9683.027554060014</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>9914.524354060015</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>9532.073454060015</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>8953.388654060014</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>9789.173154060014</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>9801.869515970015</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>9993.707659860014</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>9840.809559860014</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BSV ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>1446.08219639</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1454.03899639</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1452.35109639</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1435.96399639</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1456.73299639</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1405.89739639</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1405.89739639</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1411.88929639</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1444.73079639</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1236.72259639</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1253.73449639</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1179.11549639</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1064.57559639</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1342.75130548</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1245.43090548</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1246.39660548</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1283.02630548</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1283.55630548</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1283.61540548</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1174.59100548</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1186.60390548</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1186.60390548</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1174.56400548</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1271.81550548</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1322.17300548</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1300.98930548</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1300.98930548</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1300.98930548</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1265.13640324</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1265.44640324</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1265.44640324</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>8061.051701589999</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>8398.833240659998</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>8850.800140659998</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>9687.328815069997</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>9167.140113829997</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>9404.799160889997</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>9193.524560889997</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>9353.151560889997</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>9147.772439359996</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>8943.190539359997</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9059.656739359998</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>8863.954539359998</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9120.436205849999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8981.687705849999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>8785.658905849999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>8471.50580585</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>8801.13812525</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>8694.59738322</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>11108.41979859002</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>10469.24926139002</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>10134.20469530002</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>9943.762376000015</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>10018.24927845002</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>10182.41631541002</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>10509.86301541002</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>10204.57041416002</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>10113.39441012002</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>9671.691010120016</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>9534.343968850015</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>9593.094368850016</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>9544.876168850016</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>9541.468468850017</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>9577.309268850016</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>9631.440468850016</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>9672.671356840016</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>9666.576056840015</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>9772.262056840014</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>9683.027554060014</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>9914.524354060015</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>9532.073454060015</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>8953.388654060014</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>10045.14225406001</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>9789.173154060014</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>9993.707659860014</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>9840.809559860014</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>9820.121359860013</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
